--- a/teaching/traditional_assets/database/data/jordan/jordan_insurance_general.xlsx
+++ b/teaching/traditional_assets/database/data/jordan/jordan_insurance_general.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ14"/>
+  <dimension ref="A1:AQ9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0655</v>
+        <v>0.0262</v>
       </c>
       <c r="E2">
-        <v>0.0134</v>
+        <v>-0.05725</v>
       </c>
       <c r="G2">
-        <v>0.08108529250956806</v>
+        <v>0.07787778833789903</v>
       </c>
       <c r="H2">
-        <v>0.08108529250956806</v>
+        <v>0.07787778833789903</v>
       </c>
       <c r="I2">
-        <v>0.07999726626571896</v>
+        <v>0.05587298037680997</v>
       </c>
       <c r="J2">
-        <v>0.06504692725352135</v>
+        <v>0.04809215811106208</v>
       </c>
       <c r="K2">
-        <v>23.514</v>
+        <v>8.196</v>
       </c>
       <c r="L2">
-        <v>0.06428102788408967</v>
+        <v>0.04582098730921898</v>
       </c>
       <c r="M2">
-        <v>8.741</v>
+        <v>2.118</v>
       </c>
       <c r="N2">
-        <v>0.0425290711818226</v>
+        <v>0.018310711506873</v>
       </c>
       <c r="O2">
-        <v>0.3717359870715318</v>
+        <v>0.2584187408491948</v>
       </c>
       <c r="P2">
-        <v>8.741</v>
+        <v>2.118</v>
       </c>
       <c r="Q2">
-        <v>0.0425290711818226</v>
+        <v>0.018310711506873</v>
       </c>
       <c r="R2">
-        <v>0.3717359870715318</v>
+        <v>0.2584187408491948</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,73 +639,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>81.077</v>
+        <v>55.8</v>
       </c>
       <c r="V2">
-        <v>0.3944776918211453</v>
+        <v>0.482406847064926</v>
       </c>
       <c r="W2">
-        <v>0.07629553264604812</v>
+        <v>0.04567099567099567</v>
       </c>
       <c r="X2">
-        <v>0.07082305880843019</v>
+        <v>0.06931262583621493</v>
       </c>
       <c r="Y2">
-        <v>0.005472473837617925</v>
+        <v>-0.02364163016521927</v>
       </c>
       <c r="Z2">
-        <v>1.938650046637836</v>
+        <v>1.371019047254053</v>
       </c>
       <c r="AA2">
-        <v>0.1091606049649598</v>
+        <v>0.06654088050314463</v>
       </c>
       <c r="AB2">
-        <v>0.07082305880843019</v>
+        <v>0.06931262583621493</v>
       </c>
       <c r="AC2">
-        <v>0.03588545759693969</v>
+        <v>-0.0027717453330703</v>
       </c>
       <c r="AD2">
-        <v>20.13</v>
+        <v>3.063</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>20.13</v>
+        <v>3.063</v>
       </c>
       <c r="AG2">
-        <v>-60.947</v>
+        <v>-52.73699999999999</v>
       </c>
       <c r="AH2">
-        <v>0.08920499867056633</v>
+        <v>0.02579737730875157</v>
       </c>
       <c r="AI2">
-        <v>0.0721350247258654</v>
+        <v>0.01589575127274992</v>
       </c>
       <c r="AJ2">
-        <v>-0.4215364185277661</v>
+        <v>-0.8379864300128707</v>
       </c>
       <c r="AK2">
-        <v>-0.3078395619825945</v>
+        <v>-0.3852424886590256</v>
       </c>
       <c r="AL2">
-        <v>0.206</v>
+        <v>0.077</v>
       </c>
       <c r="AM2">
-        <v>0.206</v>
+        <v>0.077</v>
       </c>
       <c r="AN2">
-        <v>0.6149569255208651</v>
+        <v>0.2465786507808727</v>
       </c>
       <c r="AO2">
-        <v>142.0533980582524</v>
+        <v>129.7922077922078</v>
       </c>
       <c r="AP2">
-        <v>-1.861886723284658</v>
+        <v>-4.245451618096924</v>
       </c>
       <c r="AQ2">
-        <v>142.0533980582524</v>
+        <v>129.7922077922078</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +716,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Arab Jordanian Insurance Group (ASE:ARGR)</t>
+          <t>Jordan French Insurance Co. (P.L.C.) (ASE:JOFR)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -725,112 +725,121 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.07139999999999999</v>
+        <v>0.0504</v>
       </c>
       <c r="E3">
-        <v>0.0607</v>
+        <v>0.00488</v>
       </c>
       <c r="G3">
-        <v>0.05920398009950248</v>
+        <v>0.08653846153846154</v>
       </c>
       <c r="H3">
-        <v>0.05920398009950248</v>
+        <v>0.08653846153846154</v>
       </c>
       <c r="I3">
-        <v>0.03656716417910447</v>
+        <v>0.075</v>
       </c>
       <c r="J3">
-        <v>0.03436237928007024</v>
+        <v>0.05528810408921934</v>
       </c>
       <c r="K3">
-        <v>0.641</v>
+        <v>1.99</v>
       </c>
       <c r="L3">
-        <v>0.03189054726368159</v>
+        <v>0.05467032967032967</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>0.618</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>0.05327586206896552</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>0.3105527638190955</v>
       </c>
       <c r="P3">
-        <v>-0</v>
+        <v>0.618</v>
       </c>
       <c r="Q3">
-        <v>-0</v>
+        <v>0.05327586206896552</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>0.3105527638190955</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
       <c r="U3">
-        <v>10</v>
+        <v>10.2</v>
       </c>
       <c r="V3">
-        <v>1.11358574610245</v>
+        <v>0.8793103448275862</v>
       </c>
       <c r="W3">
-        <v>0.06223300970873786</v>
+        <v>0.1198795180722892</v>
       </c>
       <c r="X3">
-        <v>0.07082305880843019</v>
+        <v>0.08110821091436753</v>
       </c>
       <c r="Y3">
-        <v>-0.008590049099692333</v>
+        <v>0.03877130715792163</v>
       </c>
       <c r="Z3">
-        <v>16.08</v>
+        <v>3.483253588516746</v>
       </c>
       <c r="AA3">
-        <v>0.5525470588235294</v>
+        <v>0.1925824869710606</v>
       </c>
       <c r="AB3">
-        <v>0.07082305880843019</v>
+        <v>0.07441773564759532</v>
       </c>
       <c r="AC3">
-        <v>0.4817240000150992</v>
+        <v>0.1181647513234653</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AG3">
-        <v>-10</v>
+        <v>-7.35</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.1972318339100346</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>0.14214463840399</v>
       </c>
       <c r="AJ3">
-        <v>9.803921568627455</v>
+        <v>-1.729411764705882</v>
       </c>
       <c r="AK3">
-        <v>-12.49999999999999</v>
+        <v>-0.7461928934010152</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>0.061</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>0.061</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>0.9726962457337883</v>
+      </c>
+      <c r="AO3">
+        <v>44.75409836065574</v>
       </c>
       <c r="AP3">
-        <v>-11.32502831257078</v>
+        <v>-2.508532423208191</v>
+      </c>
+      <c r="AQ3">
+        <v>44.75409836065574</v>
       </c>
     </row>
     <row r="4">
@@ -841,7 +850,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Al-Nisr Al-Arabi Insurance Company (ASE:AAIN)</t>
+          <t>National Insurance Company (ASE:NAAI)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -850,79 +859,76 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.09619999999999999</v>
+        <v>0.0116</v>
       </c>
       <c r="E4">
-        <v>0.00441</v>
+        <v>-0.0975</v>
       </c>
       <c r="G4">
-        <v>0.1234146341463414</v>
+        <v>0.03960199004975124</v>
       </c>
       <c r="H4">
-        <v>0.1234146341463414</v>
+        <v>0.03960199004975124</v>
       </c>
       <c r="I4">
-        <v>0.09170731707317073</v>
+        <v>0.05323383084577114</v>
       </c>
       <c r="J4">
-        <v>0.07114634146341463</v>
+        <v>0.04950248756218906</v>
       </c>
       <c r="K4">
-        <v>2.92</v>
+        <v>0.993</v>
       </c>
       <c r="L4">
-        <v>0.07121951219512195</v>
+        <v>0.04940298507462686</v>
       </c>
       <c r="M4">
-        <v>3.45</v>
+        <v>-0</v>
       </c>
       <c r="N4">
-        <v>0.06583969465648855</v>
+        <v>-0</v>
       </c>
       <c r="O4">
-        <v>1.181506849315069</v>
+        <v>-0</v>
       </c>
       <c r="P4">
-        <v>3.45</v>
+        <v>-0</v>
       </c>
       <c r="Q4">
-        <v>0.06583969465648855</v>
+        <v>-0</v>
       </c>
       <c r="R4">
-        <v>1.181506849315069</v>
+        <v>-0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
       <c r="U4">
-        <v>18.3</v>
+        <v>6.58</v>
       </c>
       <c r="V4">
-        <v>0.349236641221374</v>
+        <v>0.5222222222222223</v>
       </c>
       <c r="W4">
-        <v>0.09831649831649832</v>
+        <v>0.077578125</v>
       </c>
       <c r="X4">
-        <v>0.07082305880843019</v>
+        <v>0.06931262583621493</v>
       </c>
       <c r="Y4">
-        <v>0.02749343950806812</v>
+        <v>0.008265499163785064</v>
       </c>
       <c r="Z4">
-        <v>5.18987341772152</v>
+        <v>2.951541850220264</v>
       </c>
       <c r="AA4">
-        <v>0.369240506329114</v>
+        <v>0.1461086637298091</v>
       </c>
       <c r="AB4">
-        <v>0.07082305880843019</v>
+        <v>0.06931262583621493</v>
       </c>
       <c r="AC4">
-        <v>0.2984174475206838</v>
+        <v>0.07679603789359417</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -934,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>-18.3</v>
+        <v>-6.58</v>
       </c>
       <c r="AH4">
         <v>0</v>
@@ -943,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="AJ4">
-        <v>-0.5366568914956013</v>
+        <v>-1.093023255813954</v>
       </c>
       <c r="AK4">
-        <v>-1.648648648648649</v>
+        <v>-1.057877813504823</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -958,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>-4.420289855072464</v>
+        <v>-5.771929824561404</v>
       </c>
     </row>
     <row r="5">
@@ -969,7 +975,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Arab Assurers Insurance Company (ASE:ARAS)</t>
+          <t>The United Insurance co.Ltd (ASE:UNIN)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -978,25 +984,28 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.05400000000000001</v>
+        <v>0.0143</v>
+      </c>
+      <c r="E5">
+        <v>-0.0321</v>
       </c>
       <c r="G5">
-        <v>0.06510638297872341</v>
+        <v>0.09770114942528735</v>
       </c>
       <c r="H5">
-        <v>0.06510638297872341</v>
+        <v>0.09770114942528735</v>
       </c>
       <c r="I5">
-        <v>0.05148936170212766</v>
+        <v>0.09923371647509577</v>
       </c>
       <c r="J5">
-        <v>0.0425531914893617</v>
+        <v>0.07431078691423518</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>1.95</v>
       </c>
       <c r="L5">
-        <v>0.0425531914893617</v>
+        <v>0.07471264367816091</v>
       </c>
       <c r="M5">
         <v>-0</v>
@@ -1020,55 +1029,55 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>3.85</v>
+        <v>1.1</v>
       </c>
       <c r="V5">
-        <v>1.558704453441295</v>
+        <v>0.09090909090909093</v>
       </c>
       <c r="W5">
-        <v>0.120627261761158</v>
+        <v>0.09848484848484848</v>
       </c>
       <c r="X5">
-        <v>0.07259538082744026</v>
+        <v>0.06931262583621493</v>
       </c>
       <c r="Y5">
-        <v>0.04803188093371778</v>
+        <v>0.02917222264863355</v>
       </c>
       <c r="Z5">
-        <v>7.657217334636694</v>
+        <v>1.29227112937565</v>
       </c>
       <c r="AA5">
-        <v>0.325839035516455</v>
+        <v>0.09602968453045196</v>
       </c>
       <c r="AB5">
-        <v>0.07209812424177427</v>
+        <v>0.06931262583621493</v>
       </c>
       <c r="AC5">
-        <v>0.2537409112746808</v>
+        <v>0.02671705869423703</v>
       </c>
       <c r="AD5">
-        <v>0.106</v>
+        <v>0</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.106</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>-3.744</v>
+        <v>-1.1</v>
       </c>
       <c r="AH5">
-        <v>0.04114906832298136</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.01211982620626572</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>2.938775510204082</v>
+        <v>-0.1</v>
       </c>
       <c r="AK5">
-        <v>-0.7647058823529411</v>
+        <v>-0.05472636815920399</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1077,10 +1086,10 @@
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.08091603053435113</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>-2.858015267175573</v>
+        <v>-0.3559870550161813</v>
       </c>
     </row>
     <row r="6">
@@ -1091,7 +1100,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jordan French Insurance Co. (P.L.C.) (ASE:JOFR)</t>
+          <t>First Insurance Company (ASE:FINS)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1100,118 +1109,115 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.07820000000000001</v>
+        <v>0.115</v>
       </c>
       <c r="E6">
-        <v>0.115</v>
+        <v>0.00343</v>
       </c>
       <c r="G6">
-        <v>0.05854341736694677</v>
+        <v>0.09974226804123712</v>
       </c>
       <c r="H6">
-        <v>0.05854341736694677</v>
+        <v>0.09974226804123712</v>
       </c>
       <c r="I6">
-        <v>0.07254901960784313</v>
+        <v>0.07268041237113403</v>
       </c>
       <c r="J6">
-        <v>0.05413717678306382</v>
+        <v>0.0545360824742268</v>
       </c>
       <c r="K6">
-        <v>1.87</v>
+        <v>2.11</v>
       </c>
       <c r="L6">
-        <v>0.05238095238095238</v>
+        <v>0.05438144329896907</v>
       </c>
       <c r="M6">
-        <v>-0</v>
+        <v>1.5</v>
       </c>
       <c r="N6">
-        <v>-0</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="O6">
-        <v>-0</v>
+        <v>0.7109004739336493</v>
       </c>
       <c r="P6">
-        <v>-0</v>
+        <v>1.5</v>
       </c>
       <c r="Q6">
-        <v>-0</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="R6">
-        <v>-0</v>
+        <v>0.7109004739336493</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
       <c r="U6">
-        <v>9.58</v>
+        <v>9.42</v>
       </c>
       <c r="V6">
-        <v>0.958</v>
+        <v>0.3844897959183673</v>
       </c>
       <c r="W6">
-        <v>0.1230263157894737</v>
+        <v>0.04567099567099567</v>
       </c>
       <c r="X6">
-        <v>0.08498842614546342</v>
+        <v>0.06931262583621493</v>
       </c>
       <c r="Y6">
-        <v>0.03803788964401027</v>
+        <v>-0.02364163016521927</v>
       </c>
       <c r="Z6">
-        <v>5.226939970717424</v>
+        <v>1.220125786163522</v>
       </c>
       <c r="AA6">
-        <v>0.2829717732291915</v>
+        <v>0.06654088050314463</v>
       </c>
       <c r="AB6">
-        <v>0.07873695907964054</v>
+        <v>0.06931262583621493</v>
       </c>
       <c r="AC6">
-        <v>0.204234814149551</v>
+        <v>-0.0027717453330703</v>
       </c>
       <c r="AD6">
-        <v>3.43</v>
+        <v>0</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>3.43</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>-6.15</v>
+        <v>-9.42</v>
       </c>
       <c r="AH6">
-        <v>0.2553983618763961</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.1712431352970544</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>-1.597402597402598</v>
+        <v>-0.6246684350132626</v>
       </c>
       <c r="AK6">
-        <v>-0.5885167464114832</v>
+        <v>-0.2603648424543947</v>
       </c>
       <c r="AL6">
-        <v>0.048</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.048</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>1.233812949640288</v>
-      </c>
-      <c r="AO6">
-        <v>53.95833333333333</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>-2.212230215827339</v>
-      </c>
-      <c r="AQ6">
-        <v>53.95833333333333</v>
+        <v>-2.811940298507463</v>
       </c>
     </row>
     <row r="7">
@@ -1222,7 +1228,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Arab Orient Insurance Company (ASE:AOIC)</t>
+          <t>Middle East Insurance Co. (ASE:MEIN)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1231,28 +1237,28 @@
         </is>
       </c>
       <c r="D7">
-        <v>-0.0256</v>
+        <v>0.0262</v>
       </c>
       <c r="E7">
-        <v>0.0262</v>
+        <v>-0.0824</v>
       </c>
       <c r="G7">
-        <v>0.09312762973352033</v>
+        <v>0.09288025889967638</v>
       </c>
       <c r="H7">
-        <v>0.09312762973352033</v>
+        <v>0.09288025889967638</v>
       </c>
       <c r="I7">
-        <v>0.1402524544179523</v>
+        <v>0.04692556634304207</v>
       </c>
       <c r="J7">
-        <v>0.1079943899018233</v>
+        <v>0.04030456177683202</v>
       </c>
       <c r="K7">
-        <v>7.72</v>
+        <v>1.26</v>
       </c>
       <c r="L7">
-        <v>0.1082748948106592</v>
+        <v>0.04077669902912621</v>
       </c>
       <c r="M7">
         <v>-0</v>
@@ -1276,67 +1282,73 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>2.79</v>
+        <v>15.7</v>
       </c>
       <c r="V7">
-        <v>0.0808695652173913</v>
+        <v>0.3886138613861386</v>
       </c>
       <c r="W7">
-        <v>0.236085626911315</v>
+        <v>0.02363977485928706</v>
       </c>
       <c r="X7">
-        <v>0.08686361505267283</v>
+        <v>0.06952890896299098</v>
       </c>
       <c r="Y7">
-        <v>0.1492220118586421</v>
+        <v>-0.04588913410370392</v>
       </c>
       <c r="Z7">
-        <v>1.56600043927081</v>
+        <v>0.8232535834177013</v>
       </c>
       <c r="AA7">
-        <v>0.1691192620250384</v>
+        <v>0.03318087491085708</v>
       </c>
       <c r="AB7">
-        <v>0.07949151483993142</v>
+        <v>0.06946738459705996</v>
       </c>
       <c r="AC7">
-        <v>0.08962774718510702</v>
+        <v>-0.03628650968620289</v>
       </c>
       <c r="AD7">
-        <v>13.4</v>
+        <v>0.182</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>13.4</v>
+        <v>0.182</v>
       </c>
       <c r="AG7">
-        <v>10.61</v>
+        <v>-15.518</v>
       </c>
       <c r="AH7">
-        <v>0.279749478079332</v>
+        <v>0.004484746932137401</v>
       </c>
       <c r="AI7">
-        <v>0.2567049808429119</v>
+        <v>0.00342865754869824</v>
       </c>
       <c r="AJ7">
-        <v>0.235202837508313</v>
+        <v>-0.6236636926292098</v>
       </c>
       <c r="AK7">
-        <v>0.2147338595426027</v>
+        <v>-0.4151195762666524</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="AN7">
-        <v>1.264150943396227</v>
+        <v>0.07947598253275109</v>
+      </c>
+      <c r="AO7">
+        <v>90.625</v>
       </c>
       <c r="AP7">
-        <v>1.000943396226415</v>
+        <v>-6.776419213973798</v>
+      </c>
+      <c r="AQ7">
+        <v>90.625</v>
       </c>
     </row>
     <row r="8">
@@ -1347,7 +1359,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>The United Insurance co.Ltd (ASE:UNIN)</t>
+          <t>Jordan International Insurance Company (ASE:JIJC)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1356,103 +1368,100 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.0655</v>
+        <v>-0.0548</v>
       </c>
       <c r="E8">
-        <v>-0.0539</v>
+        <v>-0.461</v>
       </c>
       <c r="G8">
-        <v>0.08802816901408451</v>
+        <v>0.05125448028673835</v>
       </c>
       <c r="H8">
-        <v>0.08802816901408451</v>
+        <v>0.05125448028673835</v>
       </c>
       <c r="I8">
-        <v>0.06725352112676056</v>
+        <v>-0.05364396654719236</v>
       </c>
       <c r="J8">
-        <v>0.05169014084507042</v>
+        <v>-0.05364396654719236</v>
       </c>
       <c r="K8">
-        <v>1.46</v>
+        <v>0.109</v>
       </c>
       <c r="L8">
-        <v>0.05140845070422535</v>
+        <v>0.01302270011947431</v>
       </c>
       <c r="M8">
-        <v>0.5639999999999999</v>
+        <v>-0</v>
       </c>
       <c r="N8">
-        <v>0.04338461538461538</v>
+        <v>-0</v>
       </c>
       <c r="O8">
-        <v>0.3863013698630137</v>
+        <v>-0</v>
       </c>
       <c r="P8">
-        <v>0.5639999999999999</v>
+        <v>-0</v>
       </c>
       <c r="Q8">
-        <v>0.04338461538461538</v>
+        <v>-0</v>
       </c>
       <c r="R8">
-        <v>0.3863013698630137</v>
+        <v>-0</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
       <c r="U8">
-        <v>0.247</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="V8">
-        <v>0.019</v>
+        <v>0.7116666666666666</v>
       </c>
       <c r="W8">
-        <v>0.0752577319587629</v>
+        <v>0.003482428115015974</v>
       </c>
       <c r="X8">
-        <v>0.07286892033905351</v>
+        <v>0.06931262583621493</v>
       </c>
       <c r="Y8">
-        <v>0.002388811619709386</v>
+        <v>-0.06583019772119895</v>
       </c>
       <c r="Z8">
-        <v>2.105263157894737</v>
+        <v>0.4185</v>
       </c>
       <c r="AA8">
-        <v>0.1088213491475167</v>
+        <v>-0.02245</v>
       </c>
       <c r="AB8">
-        <v>0.07228562867828353</v>
+        <v>0.06931262583621493</v>
       </c>
       <c r="AC8">
-        <v>0.03653572046923316</v>
+        <v>-0.09176262583621493</v>
       </c>
       <c r="AD8">
-        <v>0.644</v>
+        <v>0</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>0.644</v>
+        <v>0</v>
       </c>
       <c r="AG8">
-        <v>0.397</v>
+        <v>-8.539999999999999</v>
       </c>
       <c r="AH8">
-        <v>0.04720023453532689</v>
+        <v>0</v>
       </c>
       <c r="AI8">
-        <v>0.0315006847974956</v>
+        <v>0</v>
       </c>
       <c r="AJ8">
-        <v>0.02963350003732179</v>
+        <v>-2.468208092485548</v>
       </c>
       <c r="AK8">
-        <v>0.01965638461157598</v>
+        <v>-0.3768755516328332</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -1461,10 +1470,10 @@
         <v>0</v>
       </c>
       <c r="AN8">
-        <v>0.2683333333333334</v>
+        <v>-0</v>
       </c>
       <c r="AP8">
-        <v>0.1654166666666667</v>
+        <v>32.34848484848484</v>
       </c>
     </row>
     <row r="9">
@@ -1475,7 +1484,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Euro Arab Insurance Group Plc. (ASE:AMMI)</t>
+          <t>Arab Assurers Insurance Company (ASE:ARAS)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1484,749 +1493,109 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.141</v>
-      </c>
-      <c r="E9">
-        <v>0.0134</v>
+        <v>0.0445</v>
       </c>
       <c r="G9">
-        <v>0.04189944134078213</v>
+        <v>0.01456043956043956</v>
       </c>
       <c r="H9">
-        <v>0.04189944134078213</v>
+        <v>0.01456043956043956</v>
       </c>
       <c r="I9">
-        <v>0.04972067039106146</v>
+        <v>-0.01192307692307692</v>
       </c>
       <c r="J9">
-        <v>0.03994603859827324</v>
+        <v>-0.01192307692307692</v>
       </c>
       <c r="K9">
-        <v>1.41</v>
+        <v>-0.216</v>
       </c>
       <c r="L9">
-        <v>0.0393854748603352</v>
+        <v>-0.01186813186813187</v>
       </c>
       <c r="M9">
-        <v>0.452</v>
+        <v>-0</v>
       </c>
       <c r="N9">
-        <v>0.03095890410958904</v>
+        <v>-0</v>
       </c>
       <c r="O9">
-        <v>0.3205673758865248</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.452</v>
+        <v>-0</v>
       </c>
       <c r="Q9">
-        <v>0.03095890410958904</v>
+        <v>-0</v>
       </c>
       <c r="R9">
-        <v>0.3205673758865248</v>
+        <v>0</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
       <c r="U9">
-        <v>8.34</v>
+        <v>4.26</v>
       </c>
       <c r="V9">
-        <v>0.5712328767123288</v>
+        <v>1.724696356275303</v>
       </c>
       <c r="W9">
-        <v>0.09999999999999999</v>
+        <v>-0.02435174746335964</v>
       </c>
       <c r="X9">
-        <v>0.07803614373782729</v>
+        <v>0.06991518175554211</v>
       </c>
       <c r="Y9">
-        <v>0.0219638562621727</v>
+        <v>-0.09426692921890176</v>
       </c>
       <c r="Z9">
-        <v>2.741194486983154</v>
+        <v>4.953728905824715</v>
       </c>
       <c r="AA9">
-        <v>0.1094998607824029</v>
+        <v>-0.05906369080021776</v>
       </c>
       <c r="AB9">
-        <v>0.07426466605775667</v>
+        <v>0.06963345665336285</v>
       </c>
       <c r="AC9">
-        <v>0.03523519472464623</v>
+        <v>-0.1286971474535806</v>
       </c>
       <c r="AD9">
-        <v>2.55</v>
+        <v>0.031</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>2.55</v>
+        <v>0.031</v>
       </c>
       <c r="AG9">
-        <v>-5.79</v>
+        <v>-4.229</v>
       </c>
       <c r="AH9">
-        <v>0.1486880466472303</v>
+        <v>0.01239504198320672</v>
       </c>
       <c r="AI9">
-        <v>0.1452991452991453</v>
+        <v>0.003538408857436365</v>
       </c>
       <c r="AJ9">
-        <v>-0.6572077185017027</v>
+        <v>2.404206935758954</v>
       </c>
       <c r="AK9">
-        <v>-0.6286644951140065</v>
+        <v>-0.9395689846700732</v>
       </c>
       <c r="AL9">
-        <v>0.158</v>
+        <v>0</v>
       </c>
       <c r="AM9">
-        <v>0.158</v>
+        <v>0</v>
       </c>
       <c r="AN9">
-        <v>1.287878787878788</v>
-      </c>
-      <c r="AO9">
-        <v>11.26582278481013</v>
+        <v>-0.2719298245614035</v>
       </c>
       <c r="AP9">
-        <v>-2.924242424242424</v>
-      </c>
-      <c r="AQ9">
-        <v>11.26582278481013</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Jordan</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Arabia Insurance Company - Jordan (ASE:AICJ)</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Insurance (General)</t>
-        </is>
-      </c>
-      <c r="D10">
-        <v>0.0617</v>
-      </c>
-      <c r="E10">
-        <v>-0.0352</v>
-      </c>
-      <c r="G10">
-        <v>0.02959016393442623</v>
-      </c>
-      <c r="H10">
-        <v>0.02959016393442623</v>
-      </c>
-      <c r="I10">
-        <v>0.05040983606557378</v>
-      </c>
-      <c r="J10">
-        <v>0.04110655737704919</v>
-      </c>
-      <c r="K10">
-        <v>0.999</v>
-      </c>
-      <c r="L10">
-        <v>0.04094262295081968</v>
-      </c>
-      <c r="M10">
-        <v>0.233</v>
-      </c>
-      <c r="N10">
-        <v>0.03386627906976744</v>
-      </c>
-      <c r="O10">
-        <v>0.2332332332332333</v>
-      </c>
-      <c r="P10">
-        <v>0.233</v>
-      </c>
-      <c r="Q10">
-        <v>0.03386627906976744</v>
-      </c>
-      <c r="R10">
-        <v>0.2332332332332333</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>3.35</v>
-      </c>
-      <c r="V10">
-        <v>0.4869186046511628</v>
-      </c>
-      <c r="W10">
-        <v>0.06986013986013985</v>
-      </c>
-      <c r="X10">
-        <v>0.07082305880843019</v>
-      </c>
-      <c r="Y10">
-        <v>-0.0009629189482903422</v>
-      </c>
-      <c r="Z10">
-        <v>2.145998240985048</v>
-      </c>
-      <c r="AA10">
-        <v>0.08821459982409849</v>
-      </c>
-      <c r="AB10">
-        <v>0.07082305880843019</v>
-      </c>
-      <c r="AC10">
-        <v>0.0173915410156683</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>-3.35</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AJ10">
-        <v>-0.9490084985835695</v>
-      </c>
-      <c r="AK10">
-        <v>-0.2875536480686695</v>
-      </c>
-      <c r="AL10">
-        <v>0</v>
-      </c>
-      <c r="AM10">
-        <v>0</v>
-      </c>
-      <c r="AN10">
-        <v>0</v>
-      </c>
-      <c r="AP10">
-        <v>-2.218543046357616</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Jordan</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>First Insurance Company (ASE:FINS)</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Insurance (General)</t>
-        </is>
-      </c>
-      <c r="D11">
-        <v>0.135</v>
-      </c>
-      <c r="E11">
-        <v>0.176</v>
-      </c>
-      <c r="G11">
-        <v>0.1191428571428571</v>
-      </c>
-      <c r="H11">
-        <v>0.1191428571428571</v>
-      </c>
-      <c r="I11">
-        <v>0.09742857142857143</v>
-      </c>
-      <c r="J11">
-        <v>0.09742857142857143</v>
-      </c>
-      <c r="K11">
-        <v>3.48</v>
-      </c>
-      <c r="L11">
-        <v>0.09942857142857142</v>
-      </c>
-      <c r="M11">
-        <v>2.04</v>
-      </c>
-      <c r="N11">
-        <v>0.08607594936708861</v>
-      </c>
-      <c r="O11">
-        <v>0.5862068965517242</v>
-      </c>
-      <c r="P11">
-        <v>2.04</v>
-      </c>
-      <c r="Q11">
-        <v>0.08607594936708861</v>
-      </c>
-      <c r="R11">
-        <v>0.5862068965517242</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>8.130000000000001</v>
-      </c>
-      <c r="V11">
-        <v>0.3430379746835444</v>
-      </c>
-      <c r="W11">
-        <v>0.07733333333333334</v>
-      </c>
-      <c r="X11">
-        <v>0.07082305880843019</v>
-      </c>
-      <c r="Y11">
-        <v>0.006510274524903145</v>
-      </c>
-      <c r="Z11">
-        <v>0.8949117872666837</v>
-      </c>
-      <c r="AA11">
-        <v>0.08718997698798261</v>
-      </c>
-      <c r="AB11">
-        <v>0.07082305880843019</v>
-      </c>
-      <c r="AC11">
-        <v>0.01636691817955242</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>-8.130000000000001</v>
-      </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
-      <c r="AJ11">
-        <v>-0.5221579961464355</v>
-      </c>
-      <c r="AK11">
-        <v>-0.2211041610008159</v>
-      </c>
-      <c r="AL11">
-        <v>0</v>
-      </c>
-      <c r="AM11">
-        <v>0</v>
-      </c>
-      <c r="AN11">
-        <v>0</v>
-      </c>
-      <c r="AP11">
-        <v>-2.203252032520326</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Jordan</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Jerusalem Insurance Co. (L.T.D) (ASE:JERY)</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Insurance (General)</t>
-        </is>
-      </c>
-      <c r="G12">
-        <v>0.08560311284046694</v>
-      </c>
-      <c r="H12">
-        <v>0.08560311284046694</v>
-      </c>
-      <c r="I12">
-        <v>0.06770428015564202</v>
-      </c>
-      <c r="J12">
-        <v>0.05495994506752117</v>
-      </c>
-      <c r="K12">
-        <v>1.38</v>
-      </c>
-      <c r="L12">
-        <v>0.0536964980544747</v>
-      </c>
-      <c r="M12">
-        <v>1.24</v>
-      </c>
-      <c r="N12">
-        <v>0.07085714285714285</v>
-      </c>
-      <c r="O12">
-        <v>0.8985507246376813</v>
-      </c>
-      <c r="P12">
-        <v>1.24</v>
-      </c>
-      <c r="Q12">
-        <v>0.07085714285714285</v>
-      </c>
-      <c r="R12">
-        <v>0.8985507246376813</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>5.61</v>
-      </c>
-      <c r="V12">
-        <v>0.3205714285714286</v>
-      </c>
-      <c r="W12">
-        <v>0.07225130890052354</v>
-      </c>
-      <c r="X12">
-        <v>0.07082305880843019</v>
-      </c>
-      <c r="Y12">
-        <v>0.001428250092093353</v>
-      </c>
-      <c r="Z12">
-        <v>1.395146843276695</v>
-      </c>
-      <c r="AA12">
-        <v>0.07667719386761272</v>
-      </c>
-      <c r="AB12">
-        <v>0.07082305880843019</v>
-      </c>
-      <c r="AC12">
-        <v>0.00585413505918253</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <v>-5.61</v>
-      </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
-      <c r="AJ12">
-        <v>-0.471825063078217</v>
-      </c>
-      <c r="AK12">
-        <v>-0.4158636026686434</v>
-      </c>
-      <c r="AL12">
-        <v>0</v>
-      </c>
-      <c r="AM12">
-        <v>0</v>
-      </c>
-      <c r="AN12">
-        <v>0</v>
-      </c>
-      <c r="AP12">
-        <v>-2.819095477386935</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Jordan</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Jordan International Insurance Company (ASE:JIJC)</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Insurance (General)</t>
-        </is>
-      </c>
-      <c r="D13">
-        <v>0.0348</v>
-      </c>
-      <c r="E13">
-        <v>-0.173</v>
-      </c>
-      <c r="G13">
-        <v>0.03912</v>
-      </c>
-      <c r="H13">
-        <v>0.03912</v>
-      </c>
-      <c r="I13">
-        <v>0.04768</v>
-      </c>
-      <c r="J13">
-        <v>0.04768</v>
-      </c>
-      <c r="K13">
-        <v>0.597</v>
-      </c>
-      <c r="L13">
-        <v>0.04776</v>
-      </c>
-      <c r="M13">
-        <v>-0</v>
-      </c>
-      <c r="N13">
-        <v>-0</v>
-      </c>
-      <c r="O13">
-        <v>-0</v>
-      </c>
-      <c r="P13">
-        <v>-0</v>
-      </c>
-      <c r="Q13">
-        <v>-0</v>
-      </c>
-      <c r="R13">
-        <v>-0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>8.619999999999999</v>
-      </c>
-      <c r="V13">
-        <v>0.8209523809523809</v>
-      </c>
-      <c r="W13">
-        <v>0.01889240506329114</v>
-      </c>
-      <c r="X13">
-        <v>0.07082305880843019</v>
-      </c>
-      <c r="Y13">
-        <v>-0.05193065374513905</v>
-      </c>
-      <c r="Z13">
-        <v>0.5633675860825671</v>
-      </c>
-      <c r="AA13">
-        <v>0.0268613665044168</v>
-      </c>
-      <c r="AB13">
-        <v>0.07082305880843019</v>
-      </c>
-      <c r="AC13">
-        <v>-0.04396169230401339</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <v>-8.619999999999999</v>
-      </c>
-      <c r="AH13">
-        <v>0</v>
-      </c>
-      <c r="AI13">
-        <v>0</v>
-      </c>
-      <c r="AJ13">
-        <v>-4.585106382978721</v>
-      </c>
-      <c r="AK13">
-        <v>-0.3624894869638351</v>
-      </c>
-      <c r="AL13">
-        <v>0</v>
-      </c>
-      <c r="AM13">
-        <v>0</v>
-      </c>
-      <c r="AN13">
-        <v>0</v>
-      </c>
-      <c r="AP13">
-        <v>-9.524861878453038</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Jordan</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Arab Union International Insurance PLC (ASE:AIUI)</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Insurance (General)</t>
-        </is>
-      </c>
-      <c r="D14">
-        <v>0.0418</v>
-      </c>
-      <c r="G14">
-        <v>0.1266129032258065</v>
-      </c>
-      <c r="H14">
-        <v>0.1266129032258065</v>
-      </c>
-      <c r="I14">
-        <v>0.02435483870967742</v>
-      </c>
-      <c r="J14">
-        <v>0.01217741935483871</v>
-      </c>
-      <c r="K14">
-        <v>0.037</v>
-      </c>
-      <c r="L14">
-        <v>0.002983870967741935</v>
-      </c>
-      <c r="M14">
-        <v>0.762</v>
-      </c>
-      <c r="N14">
-        <v>0.06927272727272728</v>
-      </c>
-      <c r="O14">
-        <v>20.5945945945946</v>
-      </c>
-      <c r="P14">
-        <v>0.762</v>
-      </c>
-      <c r="Q14">
-        <v>0.06927272727272728</v>
-      </c>
-      <c r="R14">
-        <v>20.5945945945946</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>2.26</v>
-      </c>
-      <c r="V14">
-        <v>0.2054545454545454</v>
-      </c>
-      <c r="W14">
-        <v>0.004017372421281216</v>
-      </c>
-      <c r="X14">
-        <v>0.07082305880843019</v>
-      </c>
-      <c r="Y14">
-        <v>-0.06680568638714898</v>
-      </c>
-      <c r="Z14">
-        <v>1.916537867078825</v>
-      </c>
-      <c r="AA14">
-        <v>0.02333848531684698</v>
-      </c>
-      <c r="AB14">
-        <v>0.07082305880843019</v>
-      </c>
-      <c r="AC14">
-        <v>-0.04748457349158321</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <v>-2.26</v>
-      </c>
-      <c r="AH14">
-        <v>0</v>
-      </c>
-      <c r="AI14">
-        <v>0</v>
-      </c>
-      <c r="AJ14">
-        <v>-0.2585812356979404</v>
-      </c>
-      <c r="AK14">
-        <v>-0.362760834670947</v>
-      </c>
-      <c r="AL14">
-        <v>0</v>
-      </c>
-      <c r="AM14">
-        <v>0</v>
-      </c>
-      <c r="AN14">
-        <v>0</v>
-      </c>
-      <c r="AP14">
-        <v>-4.139194139194139</v>
+        <v>37.09649122807018</v>
       </c>
     </row>
   </sheetData>
